--- a/natmiOut/OldD4/LR-pairs_lrc2p/Trf-Tfr2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Trf-Tfr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,57 +534,57 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.267569738954382</v>
+        <v>0.4796840000000001</v>
       </c>
       <c r="H2">
-        <v>0.267569738954382</v>
+        <v>1.439052</v>
       </c>
       <c r="I2">
-        <v>0.002415972408260443</v>
+        <v>0.00309815167247233</v>
       </c>
       <c r="J2">
-        <v>0.002415972408260443</v>
+        <v>0.003108049284200215</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.821184422473889</v>
+        <v>0.8293556666666667</v>
       </c>
       <c r="N2">
-        <v>0.821184422473889</v>
+        <v>2.488067</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9684897047217467</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9787701502025543</v>
       </c>
       <c r="Q2">
-        <v>0.2197241015547435</v>
+        <v>0.3978286436093334</v>
       </c>
       <c r="R2">
-        <v>0.2197241015547435</v>
+        <v>3.580457792484001</v>
       </c>
       <c r="S2">
-        <v>0.002415972408260443</v>
+        <v>0.003000527998455912</v>
       </c>
       <c r="T2">
-        <v>0.002415972408260443</v>
+        <v>0.003042065864733586</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>21.6371367551463</v>
+        <v>0.4796840000000001</v>
       </c>
       <c r="H3">
-        <v>21.6371367551463</v>
+        <v>1.439052</v>
       </c>
       <c r="I3">
-        <v>0.1953686003449877</v>
+        <v>0.00309815167247233</v>
       </c>
       <c r="J3">
-        <v>0.1953686003449877</v>
+        <v>0.003108049284200215</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M3">
-        <v>0.821184422473889</v>
+        <v>0.0269835</v>
       </c>
       <c r="N3">
-        <v>0.821184422473889</v>
+        <v>0.053967</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.03151029527825326</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.02122984979744567</v>
       </c>
       <c r="Q3">
-        <v>17.76807965026337</v>
+        <v>0.012943553214</v>
       </c>
       <c r="R3">
-        <v>17.76807965026337</v>
+        <v>0.07766131928400001</v>
       </c>
       <c r="S3">
-        <v>0.1953686003449877</v>
+        <v>9.76236740164173E-05</v>
       </c>
       <c r="T3">
-        <v>0.1953686003449877</v>
+        <v>6.598341946662908E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -658,57 +658,57 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>41.7067195279172</v>
+        <v>22.35043633333333</v>
       </c>
       <c r="H4">
-        <v>41.7067195279172</v>
+        <v>67.051309</v>
       </c>
       <c r="I4">
-        <v>0.3765832564335085</v>
+        <v>0.1443555376176879</v>
       </c>
       <c r="J4">
-        <v>0.3765832564335085</v>
+        <v>0.1448167077646516</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.821184422473889</v>
+        <v>0.8293556666666667</v>
       </c>
       <c r="N4">
-        <v>0.821184422473889</v>
+        <v>2.488067</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.9684897047217467</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.9787701502025543</v>
       </c>
       <c r="Q4">
-        <v>34.24890838881316</v>
+        <v>18.53646102552256</v>
       </c>
       <c r="R4">
-        <v>34.24890838881316</v>
+        <v>166.828149229703</v>
       </c>
       <c r="S4">
-        <v>0.3765832564335085</v>
+        <v>0.1398068520023035</v>
       </c>
       <c r="T4">
-        <v>0.3765832564335085</v>
+        <v>0.1417422708106474</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>45.9552617930236</v>
+        <v>22.35043633333333</v>
       </c>
       <c r="H5">
-        <v>45.9552617930236</v>
+        <v>67.051309</v>
       </c>
       <c r="I5">
-        <v>0.4149446979325988</v>
+        <v>0.1443555376176879</v>
       </c>
       <c r="J5">
-        <v>0.4149446979325988</v>
+        <v>0.1448167077646516</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.821184422473889</v>
+        <v>0.0269835</v>
       </c>
       <c r="N5">
-        <v>0.821184422473889</v>
+        <v>0.053967</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.03151029527825326</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.02122984979744567</v>
       </c>
       <c r="Q5">
-        <v>37.73774511514046</v>
+        <v>0.6030929988005</v>
       </c>
       <c r="R5">
-        <v>37.73774511514046</v>
+        <v>3.618557992803</v>
       </c>
       <c r="S5">
-        <v>0.4149446979325988</v>
+        <v>0.004548685615384342</v>
       </c>
       <c r="T5">
-        <v>0.4149446979325988</v>
+        <v>0.003074436954004137</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -782,52 +782,362 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.18364113719953</v>
+        <v>63.46539633333334</v>
       </c>
       <c r="H6">
-        <v>1.18364113719953</v>
+        <v>190.396189</v>
       </c>
       <c r="I6">
-        <v>0.01068747288064447</v>
+        <v>0.409906154456342</v>
       </c>
       <c r="J6">
-        <v>0.01068747288064447</v>
+        <v>0.4112156745801394</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.821184422473889</v>
+        <v>0.8293556666666667</v>
       </c>
       <c r="N6">
-        <v>0.821184422473889</v>
+        <v>2.488067</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.9684897047217467</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.9787701502025543</v>
       </c>
       <c r="Q6">
-        <v>0.9719876636675332</v>
+        <v>52.6353860862959</v>
       </c>
       <c r="R6">
-        <v>0.9719876636675332</v>
+        <v>473.7184747766631</v>
       </c>
       <c r="S6">
-        <v>0.01068747288064447</v>
+        <v>0.3969898904930493</v>
       </c>
       <c r="T6">
-        <v>0.01068747288064447</v>
+        <v>0.4024856275744477</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>63.46539633333334</v>
+      </c>
+      <c r="H7">
+        <v>190.396189</v>
+      </c>
+      <c r="I7">
+        <v>0.409906154456342</v>
+      </c>
+      <c r="J7">
+        <v>0.4112156745801394</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.5</v>
+      </c>
+      <c r="M7">
+        <v>0.0269835</v>
+      </c>
+      <c r="N7">
+        <v>0.053967</v>
+      </c>
+      <c r="O7">
+        <v>0.03151029527825326</v>
+      </c>
+      <c r="P7">
+        <v>0.02122984979744567</v>
+      </c>
+      <c r="Q7">
+        <v>1.7125185219605</v>
+      </c>
+      <c r="R7">
+        <v>10.275111131763</v>
+      </c>
+      <c r="S7">
+        <v>0.01291626396329263</v>
+      </c>
+      <c r="T7">
+        <v>0.008730047005691657</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>67.05440800000001</v>
+      </c>
+      <c r="H8">
+        <v>201.163224</v>
+      </c>
+      <c r="I8">
+        <v>0.4330866284717481</v>
+      </c>
+      <c r="J8">
+        <v>0.434470202856191</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.8293556666666667</v>
+      </c>
+      <c r="N8">
+        <v>2.488067</v>
+      </c>
+      <c r="O8">
+        <v>0.9684897047217467</v>
+      </c>
+      <c r="P8">
+        <v>0.9787701502025543</v>
+      </c>
+      <c r="Q8">
+        <v>55.61195324977868</v>
+      </c>
+      <c r="R8">
+        <v>500.507579248008</v>
+      </c>
+      <c r="S8">
+        <v>0.4194399409275401</v>
+      </c>
+      <c r="T8">
+        <v>0.4252464657080883</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>67.05440800000001</v>
+      </c>
+      <c r="H9">
+        <v>201.163224</v>
+      </c>
+      <c r="I9">
+        <v>0.4330866284717481</v>
+      </c>
+      <c r="J9">
+        <v>0.434470202856191</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.5</v>
+      </c>
+      <c r="M9">
+        <v>0.0269835</v>
+      </c>
+      <c r="N9">
+        <v>0.053967</v>
+      </c>
+      <c r="O9">
+        <v>0.03151029527825326</v>
+      </c>
+      <c r="P9">
+        <v>0.02122984979744567</v>
+      </c>
+      <c r="Q9">
+        <v>1.809362618268</v>
+      </c>
+      <c r="R9">
+        <v>10.856175709608</v>
+      </c>
+      <c r="S9">
+        <v>0.01364668754420795</v>
+      </c>
+      <c r="T9">
+        <v>0.009223737148102686</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.479164</v>
+      </c>
+      <c r="H10">
+        <v>2.958328</v>
+      </c>
+      <c r="I10">
+        <v>0.009553527781749779</v>
+      </c>
+      <c r="J10">
+        <v>0.006389365514817707</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.8293556666666667</v>
+      </c>
+      <c r="N10">
+        <v>2.488067</v>
+      </c>
+      <c r="O10">
+        <v>0.9684897047217467</v>
+      </c>
+      <c r="P10">
+        <v>0.9787701502025543</v>
+      </c>
+      <c r="Q10">
+        <v>1.226753045329333</v>
+      </c>
+      <c r="R10">
+        <v>7.360518271976</v>
+      </c>
+      <c r="S10">
+        <v>0.009252493300397846</v>
+      </c>
+      <c r="T10">
+        <v>0.006253720244637147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.479164</v>
+      </c>
+      <c r="H11">
+        <v>2.958328</v>
+      </c>
+      <c r="I11">
+        <v>0.009553527781749779</v>
+      </c>
+      <c r="J11">
+        <v>0.006389365514817707</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.5</v>
+      </c>
+      <c r="M11">
+        <v>0.0269835</v>
+      </c>
+      <c r="N11">
+        <v>0.053967</v>
+      </c>
+      <c r="O11">
+        <v>0.03151029527825326</v>
+      </c>
+      <c r="P11">
+        <v>0.02122984979744567</v>
+      </c>
+      <c r="Q11">
+        <v>0.039913021794</v>
+      </c>
+      <c r="R11">
+        <v>0.159652087176</v>
+      </c>
+      <c r="S11">
+        <v>0.0003010344813519314</v>
+      </c>
+      <c r="T11">
+        <v>0.000135645270180559</v>
       </c>
     </row>
   </sheetData>
